--- a/src/test/java/gerard/resources/excel/testdata.xlsx
+++ b/src/test/java/gerard/resources/excel/testdata.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grecinto\Desktop\testLearning\src\test\java\gerard\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1112AC5-ACBA-486B-BF84-09CF60D59BF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{105C5DFB-263E-4FB2-B69C-46CD8F2E0A76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{070B1EE3-25CE-48A7-9212-1969A4600F02}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -22,6 +22,26 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>postcode</t>
+  </si>
+  <si>
+    <t>firstTest</t>
+  </si>
+  <si>
+    <t>lastTest</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +391,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688369D3-32EE-4744-9A96-B18C5996DEB0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/java/gerard/resources/excel/testdata.xlsx
+++ b/src/test/java/gerard/resources/excel/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grecinto\Desktop\testLearning\src\test\java\gerard\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{105C5DFB-263E-4FB2-B69C-46CD8F2E0A76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE6750E7-26D7-4DC5-849C-1E1BA5B7FF7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{070B1EE3-25CE-48A7-9212-1969A4600F02}"/>
   </bookViews>
@@ -36,10 +36,10 @@
     <t>postcode</t>
   </si>
   <si>
-    <t>firstTest</t>
+    <t>gdsfsd</t>
   </si>
   <si>
-    <t>lastTest</t>
+    <t>sdfsdfsdf</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/gerard/resources/excel/testdata.xlsx
+++ b/src/test/java/gerard/resources/excel/testdata.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grecinto\Desktop\testLearning\src\test\java\gerard\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EE6750E7-26D7-4DC5-849C-1E1BA5B7FF7F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{777C88E0-601C-4372-8738-9919201F0DAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{070B1EE3-25CE-48A7-9212-1969A4600F02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{070B1EE3-25CE-48A7-9212-1969A4600F02}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>firstname</t>
   </si>
@@ -36,23 +38,80 @@
     <t>postcode</t>
   </si>
   <si>
-    <t>gdsfsd</t>
-  </si>
-  <si>
     <t>sdfsdfsdf</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>alerttext</t>
+  </si>
+  <si>
+    <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>a sdfsdfsdf</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>runmode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,8 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,35 +452,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36655824-455E-40D1-A128-C3B54089033E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{688369D3-32EE-4744-9A96-B18C5996DEB0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>12345</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>12345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>12345</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>12345</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43868A4B-9123-4418-83A3-2DDBCC07D638}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>12345</v>
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
